--- a/src/Input_Files/kingdom_names/italia_kingdoms.xlsx
+++ b/src/Input_Files/kingdom_names/italia_kingdoms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Desktop\CK\CKU_bestanden\Mapping\italy_export_maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD68D66C-B464-433C-93AB-8140D467928B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B307D909-A202-4035-92B8-66B84560973F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="6420" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kingdoms" sheetId="1" r:id="rId1"/>
@@ -179,7 +179,77 @@
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -537,19 +607,19 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -566,7 +636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -580,7 +650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -594,7 +664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -608,7 +678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -622,7 +692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -637,7 +707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -651,7 +721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -665,7 +735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -679,7 +749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -695,9 +765,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1 A11:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A10">
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/Input_Files/kingdom_names/italia_kingdoms.xlsx
+++ b/src/Input_Files/kingdom_names/italia_kingdoms.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Desktop\CK\CKU_bestanden\Mapping\italy_export_maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B307D909-A202-4035-92B8-66B84560973F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4C62F0-1158-458C-BF39-07ABE6B1CF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>RGB</t>
   </si>
@@ -31,94 +31,100 @@
     <t>owner_id</t>
   </si>
   <si>
+    <t>government</t>
+  </si>
+  <si>
+    <t>feudal_government</t>
+  </si>
+  <si>
+    <t>(147, 29, 10)</t>
+  </si>
+  <si>
+    <t>sicily</t>
+  </si>
+  <si>
+    <t>Sicily</t>
+  </si>
+  <si>
+    <t>(245, 121, 48)</t>
+  </si>
+  <si>
+    <t>naples</t>
+  </si>
+  <si>
+    <t>Naples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(96, 91, 65) </t>
+  </si>
+  <si>
+    <t>sardegna</t>
+  </si>
+  <si>
+    <t>Sardegna</t>
+  </si>
+  <si>
+    <t>(61, 64, 20)</t>
+  </si>
+  <si>
+    <t>stato_pontificio</t>
+  </si>
+  <si>
+    <t>Stato Pontificio</t>
+  </si>
+  <si>
+    <t>(85, 229, 18)</t>
+  </si>
+  <si>
+    <t>toscana</t>
+  </si>
+  <si>
+    <t>Toscana</t>
+  </si>
+  <si>
+    <t>(104, 57, 7)</t>
+  </si>
+  <si>
+    <t>piemonte</t>
+  </si>
+  <si>
+    <t>Piemonte</t>
+  </si>
+  <si>
+    <t>(196, 239, 40)</t>
+  </si>
+  <si>
+    <t>genoa</t>
+  </si>
+  <si>
+    <t>Genoa</t>
+  </si>
+  <si>
+    <t>(210, 169, 44)</t>
+  </si>
+  <si>
+    <t>lombardy</t>
+  </si>
+  <si>
+    <t>Lombardy</t>
+  </si>
+  <si>
+    <t>(192, 72, 3)</t>
+  </si>
+  <si>
+    <t>venice</t>
+  </si>
+  <si>
+    <t>Venice</t>
+  </si>
+  <si>
+    <t>capital_county</t>
+  </si>
+  <si>
+    <t>title_succession_laws</t>
+  </si>
+  <si>
     <t>codename_kingdom</t>
-  </si>
-  <si>
-    <t>government</t>
-  </si>
-  <si>
-    <t>feudal_government</t>
-  </si>
-  <si>
-    <t>(147, 29, 10)</t>
-  </si>
-  <si>
-    <t>sicily</t>
-  </si>
-  <si>
-    <t>Sicily</t>
-  </si>
-  <si>
-    <t>(245, 121, 48)</t>
-  </si>
-  <si>
-    <t>naples</t>
-  </si>
-  <si>
-    <t>Naples</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(96, 91, 65) </t>
-  </si>
-  <si>
-    <t>sardegna</t>
-  </si>
-  <si>
-    <t>Sardegna</t>
-  </si>
-  <si>
-    <t>(61, 64, 20)</t>
-  </si>
-  <si>
-    <t>stato_pontificio</t>
-  </si>
-  <si>
-    <t>Stato Pontificio</t>
-  </si>
-  <si>
-    <t>(85, 229, 18)</t>
-  </si>
-  <si>
-    <t>toscana</t>
-  </si>
-  <si>
-    <t>Toscana</t>
-  </si>
-  <si>
-    <t>(104, 57, 7)</t>
-  </si>
-  <si>
-    <t>piemonte</t>
-  </si>
-  <si>
-    <t>Piemonte</t>
-  </si>
-  <si>
-    <t>(196, 239, 40)</t>
-  </si>
-  <si>
-    <t>genoa</t>
-  </si>
-  <si>
-    <t>Genoa</t>
-  </si>
-  <si>
-    <t>(210, 169, 44)</t>
-  </si>
-  <si>
-    <t>lombardy</t>
-  </si>
-  <si>
-    <t>Lombardy</t>
-  </si>
-  <si>
-    <t>(192, 72, 3)</t>
-  </si>
-  <si>
-    <t>venice</t>
-  </si>
-  <si>
-    <t>Venice</t>
   </si>
 </sst>
 </file>
@@ -179,27 +185,7 @@
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -604,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -615,166 +601,180 @@
     <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>29</v>
       </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>31</v>
       </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" t="s">
-        <v>5</v>
+      <c r="F10" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1 A11:A1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+  <conditionalFormatting sqref="A11:A1048576">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A10">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  <conditionalFormatting sqref="A2:A1048576">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
